--- a/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16960"/>
+    <workbookView windowHeight="16960" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Map2</t>
-  </si>
-  <si>
-    <t>OuterPort</t>
   </si>
   <si>
     <t>Robot</t>
@@ -122,12 +119,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,13 +154,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -172,6 +162,36 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,22 +205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +222,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -223,10 +253,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,19 +268,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,37 +282,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -320,169 +310,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,9 +497,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,41 +569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -578,166 +583,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -764,7 +754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1117,8 +1107,8 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="7"/>
@@ -1330,7 +1320,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1363,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="16.8" spans="1:12">
@@ -1434,10 +1424,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -1560,8 +1550,8 @@
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1586,7 +1576,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1646,10 +1636,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="5">
         <v>30300</v>
@@ -1666,10 +1656,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="G5" s="5">
         <v>30301</v>
@@ -1686,10 +1676,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="5">
         <v>30302</v>
@@ -1706,10 +1696,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5">
         <v>30303</v>
@@ -1726,10 +1716,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16960" activeTab="2"/>
+    <workbookView windowHeight="16960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
-    <sheet name="Robot区" sheetId="2" r:id="rId2"/>
-    <sheet name="Router" sheetId="3" r:id="rId3"/>
+    <sheet name="Router" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -81,6 +80,9 @@
     <t>Location</t>
   </si>
   <si>
+    <t>Match</t>
+  </si>
+  <si>
     <t>Map</t>
   </si>
   <si>
@@ -88,12 +90,6 @@
   </si>
   <si>
     <t>Map2</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Robot01</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -119,10 +115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -160,6 +156,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -168,15 +179,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,46 +203,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,13 +225,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -253,31 +234,46 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,73 +300,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,13 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,31 +450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,43 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,56 +487,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +516,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -583,155 +559,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="19" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="19" applyAlignment="1">
@@ -749,12 +745,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1105,10 +1095,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="7"/>
@@ -1285,7 +1275,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="5"/>
     </row>
@@ -1300,12 +1290,30 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="8">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1317,244 +1325,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L17"/>
-  <sheetViews>
-    <sheetView zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="21.1634615384615" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.6634615384615" style="7" customWidth="1"/>
-    <col min="3" max="5" width="12.6634615384615" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.3365384615385" style="8" customWidth="1"/>
-    <col min="7" max="8" width="13.1634615384615" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.8" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="16.8" spans="1:12">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-    </row>
-    <row r="3" ht="16.8" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-    </row>
-    <row r="4" ht="16.8" spans="1:12">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9">
-        <v>200</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-    </row>
-    <row r="5" ht="16.8" spans="1:12">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-    </row>
-    <row r="6" s="6" customFormat="1" ht="16.8" spans="1:12">
-      <c r="A6" s="5"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-    </row>
-    <row r="7" ht="16.8" spans="1:12">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-    </row>
-    <row r="8" ht="16.8" spans="1:12">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-    </row>
-    <row r="9" ht="16.8" spans="1:12">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="6" width="15.5384615384615" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -1636,10 +1416,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="5">
         <v>30300</v>
@@ -1656,10 +1436,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="G5" s="5">
         <v>30301</v>
@@ -1676,10 +1456,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="5">
         <v>30302</v>
@@ -1696,10 +1476,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="5">
         <v>30303</v>
@@ -1716,10 +1496,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="5">
         <v>30304</v>
